--- a/eCert/Uploads/Certificate.xlsx
+++ b/eCert/Uploads/Certificate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\Ha_Test\Data Xịn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A216745E-0A96-42D2-B53E-0D0EB2C65F86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364036AE-BB3A-4F64-8E7F-0C70E2FE8E67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -585,7 +585,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/eCert/Uploads/Certificate.xlsx
+++ b/eCert/Uploads/Certificate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\Ha_Test\Data Xịn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364036AE-BB3A-4F64-8E7F-0C70E2FE8E67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71113D18-4B49-47C1-8AC9-A40673E8EED7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,12 +159,6 @@
     <t>ITE302b</t>
   </si>
   <si>
-    <t>.NET and C#</t>
-  </si>
-  <si>
-    <t>PRN292</t>
-  </si>
-  <si>
     <t>Ho Chi Minh Ideology</t>
   </si>
   <si>
@@ -216,21 +210,9 @@
     <t>Web-Based Java Applications</t>
   </si>
   <si>
-    <t>Software Requirements</t>
-  </si>
-  <si>
-    <t>Software Quality Assurance and Testing</t>
-  </si>
-  <si>
     <t>PRJ321</t>
   </si>
   <si>
-    <t>SWR301</t>
-  </si>
-  <si>
-    <t>SWQ391</t>
-  </si>
-  <si>
     <t>ĐH200311</t>
   </si>
   <si>
@@ -259,6 +241,24 @@
   </si>
   <si>
     <t>ĐH200320</t>
+  </si>
+  <si>
+    <t>Operating Systems</t>
+  </si>
+  <si>
+    <t>OSG202</t>
+  </si>
+  <si>
+    <t>Connecting to Computer Science</t>
+  </si>
+  <si>
+    <t>Computer Organization and Architecture</t>
+  </si>
+  <si>
+    <t>CEA201</t>
+  </si>
+  <si>
+    <t>CSI101</t>
   </si>
 </sst>
 </file>
@@ -585,7 +585,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,13 +972,13 @@
         <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="J10">
         <v>7.5</v>
       </c>
       <c r="K10" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="L10" t="s">
         <v>29</v>
@@ -1010,16 +1010,16 @@
         <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J11">
         <v>8</v>
       </c>
       <c r="K11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" t="s">
         <v>46</v>
-      </c>
-      <c r="L11" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1027,37 +1027,37 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
         <v>51</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" t="s">
-        <v>53</v>
       </c>
       <c r="J12">
         <v>9</v>
       </c>
       <c r="K12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1065,13 +1065,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
@@ -1086,16 +1086,16 @@
         <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J13">
         <v>7.2</v>
       </c>
       <c r="K13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1103,13 +1103,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
@@ -1124,16 +1124,16 @@
         <v>18</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J14">
         <v>6.4</v>
       </c>
       <c r="K14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1141,13 +1141,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
@@ -1162,16 +1162,16 @@
         <v>18</v>
       </c>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J15">
         <v>8.6</v>
       </c>
       <c r="K15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1179,13 +1179,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
@@ -1200,16 +1200,16 @@
         <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J16">
         <v>7</v>
       </c>
       <c r="K16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1217,13 +1217,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
@@ -1238,16 +1238,16 @@
         <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J17">
         <v>7.5</v>
       </c>
       <c r="K17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L17" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1255,37 +1255,37 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
         <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" t="s">
-        <v>45</v>
       </c>
       <c r="J18">
         <v>7.5</v>
       </c>
       <c r="K18" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L18" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1293,13 +1293,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
         <v>15</v>
@@ -1314,16 +1314,16 @@
         <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="J19">
         <v>8.1999999999999993</v>
       </c>
       <c r="K19" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="L19" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1331,13 +1331,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
         <v>15</v>
@@ -1352,16 +1352,16 @@
         <v>18</v>
       </c>
       <c r="I20" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="J20">
         <v>6.8</v>
       </c>
       <c r="K20" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="L20" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1369,13 +1369,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
         <v>15</v>
@@ -1390,16 +1390,16 @@
         <v>18</v>
       </c>
       <c r="I21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J21">
         <v>8.5</v>
       </c>
       <c r="K21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
